--- a/data/raw/market_parameter.xlsx
+++ b/data/raw/market_parameter.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49D0825-422B-4ACC-B1E3-7100A981B9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="MarketParams" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
   <extLst>
@@ -27,13 +28,13 @@
     <t>dayahead</t>
   </si>
   <si>
-    <t>Average price</t>
+    <t>year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -344,16 +345,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -364,7 +365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -375,7 +376,7 @@
         <v>31.7239834474885</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -386,7 +387,7 @@
         <v>31.022242365597531</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -397,7 +398,7 @@
         <v>32.139985445205433</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -408,7 +409,7 @@
         <v>45.843950057077372</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -419,7 +420,7 @@
         <v>36.309086757990599</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2020</v>
       </c>
